--- a/source/Datos - Requerimiento 3.xlsx
+++ b/source/Datos - Requerimiento 3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dfca358b064f129/Documents/Cecar 9/Ciencias de la computacion - Trabajos/Proyecto - corte 1/source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vilor\OneDrive\Documents\Cecar 9\Ciencias de la computacion - Trabajos\Proyecto - corte 1\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93792FBC-7DEF-4E1B-8016-8E31615A4879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B1575-3991-429F-A007-987B09323727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14496" xr2:uid="{EABD9FF2-5B4D-452B-A105-877BBF8E0B50}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{EABD9FF2-5B4D-452B-A105-877BBF8E0B50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Paciente</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Tiempo de espera (min)</t>
   </si>
@@ -48,6 +45,15 @@
   </si>
   <si>
     <t>Probabilidad de recomendación (%)</t>
+  </si>
+  <si>
+    <t>Pacientes atendidos</t>
+  </si>
+  <si>
+    <t>Duración de la consulta</t>
+  </si>
+  <si>
+    <t>Personal médico disponible</t>
   </si>
 </sst>
 </file>
@@ -419,86 +425,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26B7684-68D1-48DE-8ECB-73D1EFA6BEE9}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>15</v>
       </c>
       <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
       <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>25</v>
       </c>
       <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>60</v>
       </c>
     </row>

--- a/source/Datos - Requerimiento 3.xlsx
+++ b/source/Datos - Requerimiento 3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vilor\OneDrive\Documents\Cecar 9\Ciencias de la computacion - Trabajos\Proyecto - corte 1\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dfca358b064f129/Documents/Cecar 9/Ciencias de la computacion - Trabajos/Proyecto - corte 1/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486B1575-3991-429F-A007-987B09323727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{93792FBC-7DEF-4E1B-8016-8E31615A4879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06847BA4-5E4D-464C-86E8-2CDE7BFB255B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{EABD9FF2-5B4D-452B-A105-877BBF8E0B50}"/>
   </bookViews>
@@ -106,6 +106,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,7 +432,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +440,8 @@
     <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
